--- a/Interpreter/Saves/data.xlsx
+++ b/Interpreter/Saves/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wew248\OneDrive\Course\2018\Semester 1\BCPR301 - Advanced Programming\Assignment\BCPR301---Assignment-1\BCPR301---Assignment-1\Saves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\Course\2018\Semester 1\BCPR301 - Advanced Programming\Assignment\BCPR301---Assignment-1\BCPR301---Assignment-1\Interpreter\Saves\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_CF2E5A875C9582DD116FD05EEF161DEA26E075E0" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{D4DA4E59-6DE5-4F79-88AE-C1060E3C94A8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,43 +48,43 @@
     <t>Birthday</t>
   </si>
   <si>
-    <t>A23</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
     <t>normal</t>
   </si>
   <si>
-    <t>A24</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
     <t>Underweight</t>
   </si>
   <si>
-    <t>A25</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>Obesity</t>
   </si>
   <si>
-    <t>A26</t>
-  </si>
-  <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>A233</t>
+  </si>
+  <si>
+    <t>A244</t>
+  </si>
+  <si>
+    <t>A253</t>
+  </si>
+  <si>
+    <t>A262</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,15 +396,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -432,10 +434,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2">
         <v>22</v>
@@ -444,7 +446,7 @@
         <v>245</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -455,10 +457,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -467,7 +469,7 @@
         <v>666</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -478,10 +480,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -490,7 +492,7 @@
         <v>456</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>55</v>
@@ -501,10 +503,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -513,7 +515,7 @@
         <v>999</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>99</v>

--- a/Interpreter/Saves/data.xlsx
+++ b/Interpreter/Saves/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\Course\2018\Semester 1\BCPR301 - Advanced Programming\Assignment\BCPR301---Assignment-1\BCPR301---Assignment-1\Interpreter\Saves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wew248\OneDrive\Course\2018\Semester 1\BCPR301 - Advanced Programming\Assignment\BCPR301---Assignment-1\BCPR301---Assignment-1\interpreter\Saves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_CF2E5A875C9582DD116FD05EEF161DEA26E075E0" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{D4DA4E59-6DE5-4F79-88AE-C1060E3C94A8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -52,9 +51,6 @@
   </si>
   <si>
     <t>normal</t>
-  </si>
-  <si>
-    <t>Female</t>
   </si>
   <si>
     <t>Underweight</t>
@@ -84,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,9 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,11 +393,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +431,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -448,8 +445,8 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
-        <v>20</v>
+      <c r="F2" s="2">
+        <v>20000</v>
       </c>
       <c r="G2" s="1">
         <v>34874</v>
@@ -457,10 +454,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -469,10 +466,10 @@
         <v>666</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>30000</v>
       </c>
       <c r="G3" s="1">
         <v>32268</v>
@@ -480,10 +477,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -492,10 +489,10 @@
         <v>456</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>25000</v>
       </c>
       <c r="G4" s="1">
         <v>30529</v>
@@ -503,10 +500,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -515,10 +512,10 @@
         <v>999</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>55000</v>
       </c>
       <c r="G5" s="1">
         <v>34113</v>

--- a/Interpreter/Saves/data.xlsx
+++ b/Interpreter/Saves/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wew248\OneDrive\Course\2018\Semester 1\BCPR301 - Advanced Programming\Assignment\BCPR301---Assignment-1\BCPR301---Assignment-1\interpreter\Saves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\Course\2018\Semester 1\BCPR301 - Advanced Programming\Assignment\BCPR301---Assignment-1\BCPR301---Assignment-1\interpreter\Saves\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_63DA98B30C9582FD9D4D2031ABA4D9F520783582" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{2592B7E2-4741-47B0-8FD1-87DE9EC4A357}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -75,12 +76,99 @@
   </si>
   <si>
     <t>A262</t>
+  </si>
+  <si>
+    <t>20 000</t>
+  </si>
+  <si>
+    <t>30 000</t>
+  </si>
+  <si>
+    <t>25 000</t>
+  </si>
+  <si>
+    <t>55 000</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>80 645</t>
+  </si>
+  <si>
+    <t>12 542</t>
+  </si>
+  <si>
+    <t>90 500</t>
+  </si>
+  <si>
+    <t>98 000</t>
+  </si>
+  <si>
+    <t>B233</t>
+  </si>
+  <si>
+    <t>B244</t>
+  </si>
+  <si>
+    <t>B253</t>
+  </si>
+  <si>
+    <t>B262</t>
+  </si>
+  <si>
+    <t>V233</t>
+  </si>
+  <si>
+    <t>H244</t>
+  </si>
+  <si>
+    <t>H253</t>
+  </si>
+  <si>
+    <t>G262</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>Dinosaur</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>51 000</t>
+  </si>
+  <si>
+    <t>54 215</t>
+  </si>
+  <si>
+    <t>84 215</t>
+  </si>
+  <si>
+    <t>234 125</t>
+  </si>
+  <si>
+    <t>15 265</t>
+  </si>
+  <si>
+    <t>32 658</t>
+  </si>
+  <si>
+    <t>FireFighter</t>
+  </si>
+  <si>
+    <t>Mammoth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,17 +481,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -445,8 +534,8 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2">
-        <v>20000</v>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G2" s="1">
         <v>34874</v>
@@ -468,8 +557,8 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2">
-        <v>30000</v>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="G3" s="1">
         <v>32268</v>
@@ -491,8 +580,8 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2">
-        <v>25000</v>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>30529</v>
@@ -514,10 +603,1390 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
-        <v>55000</v>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <v>245</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>518</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>98</v>
+      </c>
+      <c r="D8">
+        <v>456</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>215</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>245</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>666</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>456</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>245</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>518</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>98</v>
+      </c>
+      <c r="D16">
+        <v>456</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>215</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>245</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>215</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>456</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>999</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <v>245</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>98</v>
+      </c>
+      <c r="D24">
+        <v>456</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>215</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>245</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>666</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>456</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>999</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>245</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>518</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>98</v>
+      </c>
+      <c r="D32">
+        <v>456</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>215</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>245</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>666</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>456</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>215</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>62</v>
+      </c>
+      <c r="D38">
+        <v>245</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>518</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>98</v>
+      </c>
+      <c r="D40">
+        <v>456</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>215</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>842</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>684</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>648</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>125</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>62</v>
+      </c>
+      <c r="D46">
+        <v>245</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>948</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>98</v>
+      </c>
+      <c r="D48">
+        <v>456</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>168</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>245</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>152</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>35</v>
+      </c>
+      <c r="D52">
+        <v>456</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>845</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <v>245</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>21</v>
+      </c>
+      <c r="D55">
+        <v>125</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56">
+        <v>98</v>
+      </c>
+      <c r="D56">
+        <v>456</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>215</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>22</v>
+      </c>
+      <c r="D58">
+        <v>245</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>666</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>35</v>
+      </c>
+      <c r="D60">
+        <v>456</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="2">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61">
+        <v>24</v>
+      </c>
+      <c r="D61">
+        <v>999</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="1">
+        <v>34113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>62</v>
+      </c>
+      <c r="D62">
+        <v>245</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="1">
+        <v>34874</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>518</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="1">
+        <v>32268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64">
+        <v>98</v>
+      </c>
+      <c r="D64">
+        <v>456</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="1">
+        <v>30529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>315</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="1">
         <v>34113</v>
       </c>
     </row>

--- a/Interpreter/Saves/data.xlsx
+++ b/Interpreter/Saves/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\Course\2018\Semester 1\BCPR301 - Advanced Programming\Assignment\BCPR301---Assignment-1\BCPR301---Assignment-1\interpreter\Saves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wew248\OneDrive\Course\2018\Semester 1\BCPR301 - Advanced Programming\Assignment\BCPR301---Assignment-1\BCPR301---Assignment-1\interpreter\Saves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_63DA98B30C9582FD9D4D2031ABA4D9F520783582" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{2592B7E2-4741-47B0-8FD1-87DE9EC4A357}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -78,33 +77,9 @@
     <t>A262</t>
   </si>
   <si>
-    <t>20 000</t>
-  </si>
-  <si>
-    <t>30 000</t>
-  </si>
-  <si>
-    <t>25 000</t>
-  </si>
-  <si>
-    <t>55 000</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
-    <t>80 645</t>
-  </si>
-  <si>
-    <t>12 542</t>
-  </si>
-  <si>
-    <t>90 500</t>
-  </si>
-  <si>
-    <t>98 000</t>
-  </si>
-  <si>
     <t>B233</t>
   </si>
   <si>
@@ -139,24 +114,6 @@
   </si>
   <si>
     <t>Plate</t>
-  </si>
-  <si>
-    <t>51 000</t>
-  </si>
-  <si>
-    <t>54 215</t>
-  </si>
-  <si>
-    <t>84 215</t>
-  </si>
-  <si>
-    <t>234 125</t>
-  </si>
-  <si>
-    <t>15 265</t>
-  </si>
-  <si>
-    <t>32 658</t>
   </si>
   <si>
     <t>FireFighter</t>
@@ -168,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,11 +438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,8 +491,8 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
+      <c r="F2" s="2">
+        <v>23</v>
       </c>
       <c r="G2" s="1">
         <v>34874</v>
@@ -557,8 +514,8 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
+      <c r="F3" s="2">
+        <v>23</v>
       </c>
       <c r="G3" s="1">
         <v>32268</v>
@@ -580,8 +537,8 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
+      <c r="F4" s="2">
+        <v>23</v>
       </c>
       <c r="G4" s="1">
         <v>30529</v>
@@ -603,8 +560,8 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
+      <c r="F5" s="2">
+        <v>23</v>
       </c>
       <c r="G5" s="1">
         <v>34113</v>
@@ -615,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>62</v>
@@ -626,8 +583,8 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
+      <c r="F6" s="2">
+        <v>23</v>
       </c>
       <c r="G6" s="1">
         <v>34874</v>
@@ -638,7 +595,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -649,7 +606,7 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="2">
         <v>23</v>
       </c>
       <c r="G7" s="1">
@@ -661,7 +618,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>98</v>
@@ -672,8 +629,8 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
+      <c r="F8" s="2">
+        <v>23</v>
       </c>
       <c r="G8" s="1">
         <v>30529</v>
@@ -684,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -695,8 +652,8 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
+      <c r="F9" s="2">
+        <v>23</v>
       </c>
       <c r="G9" s="1">
         <v>34113</v>
@@ -704,10 +661,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>22</v>
@@ -718,8 +675,8 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
+      <c r="F10" s="2">
+        <v>23</v>
       </c>
       <c r="G10" s="1">
         <v>34874</v>
@@ -727,10 +684,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -741,8 +698,8 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
+      <c r="F11" s="2">
+        <v>23</v>
       </c>
       <c r="G11" s="1">
         <v>32268</v>
@@ -750,7 +707,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -764,8 +721,8 @@
       <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>19</v>
+      <c r="F12" s="2">
+        <v>23</v>
       </c>
       <c r="G12" s="1">
         <v>30529</v>
@@ -773,7 +730,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -787,8 +744,8 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
+      <c r="F13" s="2">
+        <v>23</v>
       </c>
       <c r="G13" s="1">
         <v>34113</v>
@@ -796,10 +753,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>62</v>
@@ -810,8 +767,8 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>22</v>
+      <c r="F14" s="2">
+        <v>23</v>
       </c>
       <c r="G14" s="1">
         <v>34874</v>
@@ -819,10 +776,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>21</v>
@@ -833,7 +790,7 @@
       <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="2">
         <v>23</v>
       </c>
       <c r="G15" s="1">
@@ -842,10 +799,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>98</v>
@@ -856,8 +813,8 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>24</v>
+      <c r="F16" s="2">
+        <v>23</v>
       </c>
       <c r="G16" s="1">
         <v>30529</v>
@@ -865,10 +822,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -879,8 +836,8 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>25</v>
+      <c r="F17" s="2">
+        <v>23</v>
       </c>
       <c r="G17" s="1">
         <v>34113</v>
@@ -891,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -902,8 +859,8 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>17</v>
+      <c r="F18" s="2">
+        <v>23</v>
       </c>
       <c r="G18" s="1">
         <v>34874</v>
@@ -914,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -925,8 +882,8 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>18</v>
+      <c r="F19" s="2">
+        <v>23</v>
       </c>
       <c r="G19" s="1">
         <v>32268</v>
@@ -948,8 +905,8 @@
       <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>19</v>
+      <c r="F20" s="2">
+        <v>23</v>
       </c>
       <c r="G20" s="1">
         <v>30529</v>
@@ -971,8 +928,8 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>20</v>
+      <c r="F21" s="2">
+        <v>23</v>
       </c>
       <c r="G21" s="1">
         <v>34113</v>
@@ -983,7 +940,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>62</v>
@@ -994,8 +951,8 @@
       <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>22</v>
+      <c r="F22" s="2">
+        <v>23</v>
       </c>
       <c r="G22" s="1">
         <v>34874</v>
@@ -1006,7 +963,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>21</v>
@@ -1017,7 +974,7 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="2">
         <v>23</v>
       </c>
       <c r="G23" s="1">
@@ -1029,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>98</v>
@@ -1040,8 +997,8 @@
       <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>24</v>
+      <c r="F24" s="2">
+        <v>23</v>
       </c>
       <c r="G24" s="1">
         <v>30529</v>
@@ -1052,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -1063,8 +1020,8 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>25</v>
+      <c r="F25" s="2">
+        <v>23</v>
       </c>
       <c r="G25" s="1">
         <v>34113</v>
@@ -1072,7 +1029,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1086,8 +1043,8 @@
       <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>38</v>
+      <c r="F26" s="2">
+        <v>23</v>
       </c>
       <c r="G26" s="1">
         <v>34874</v>
@@ -1095,7 +1052,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1109,8 +1066,8 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>18</v>
+      <c r="F27" s="2">
+        <v>23</v>
       </c>
       <c r="G27" s="1">
         <v>32268</v>
@@ -1118,7 +1075,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1133,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G28" s="1">
         <v>30529</v>
@@ -1141,10 +1098,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
         <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
       </c>
       <c r="C29">
         <v>24</v>
@@ -1155,8 +1112,8 @@
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>20</v>
+      <c r="F29" s="2">
+        <v>23</v>
       </c>
       <c r="G29" s="1">
         <v>34113</v>
@@ -1164,10 +1121,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>62</v>
@@ -1178,8 +1135,8 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>22</v>
+      <c r="F30" s="2">
+        <v>23</v>
       </c>
       <c r="G30" s="1">
         <v>34874</v>
@@ -1187,10 +1144,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>21</v>
@@ -1201,7 +1158,7 @@
       <c r="E31" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="2">
         <v>23</v>
       </c>
       <c r="G31" s="1">
@@ -1210,10 +1167,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>98</v>
@@ -1224,8 +1181,8 @@
       <c r="E32" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>24</v>
+      <c r="F32" s="2">
+        <v>23</v>
       </c>
       <c r="G32" s="1">
         <v>30529</v>
@@ -1233,10 +1190,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -1247,8 +1204,8 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>25</v>
+      <c r="F33" s="2">
+        <v>23</v>
       </c>
       <c r="G33" s="1">
         <v>34113</v>
@@ -1270,8 +1227,8 @@
       <c r="E34" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>38</v>
+      <c r="F34" s="2">
+        <v>23</v>
       </c>
       <c r="G34" s="1">
         <v>34874</v>
@@ -1293,8 +1250,8 @@
       <c r="E35" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>39</v>
+      <c r="F35" s="2">
+        <v>23</v>
       </c>
       <c r="G35" s="1">
         <v>32268</v>
@@ -1316,8 +1273,8 @@
       <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>40</v>
+      <c r="F36" s="2">
+        <v>23</v>
       </c>
       <c r="G36" s="1">
         <v>30529</v>
@@ -1339,8 +1296,8 @@
       <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>20</v>
+      <c r="F37" s="2">
+        <v>23</v>
       </c>
       <c r="G37" s="1">
         <v>34113</v>
@@ -1351,7 +1308,7 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C38">
         <v>62</v>
@@ -1362,8 +1319,8 @@
       <c r="E38" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>22</v>
+      <c r="F38" s="2">
+        <v>23</v>
       </c>
       <c r="G38" s="1">
         <v>34874</v>
@@ -1374,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C39">
         <v>21</v>
@@ -1385,7 +1342,7 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="2">
         <v>23</v>
       </c>
       <c r="G39" s="1">
@@ -1397,7 +1354,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C40">
         <v>98</v>
@@ -1408,8 +1365,8 @@
       <c r="E40" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>41</v>
+      <c r="F40" s="2">
+        <v>23</v>
       </c>
       <c r="G40" s="1">
         <v>30529</v>
@@ -1420,7 +1377,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>12</v>
@@ -1431,8 +1388,8 @@
       <c r="E41" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>25</v>
+      <c r="F41" s="2">
+        <v>23</v>
       </c>
       <c r="G41" s="1">
         <v>34113</v>
@@ -1440,7 +1397,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1454,8 +1411,8 @@
       <c r="E42" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>17</v>
+      <c r="F42" s="2">
+        <v>23</v>
       </c>
       <c r="G42" s="1">
         <v>34874</v>
@@ -1463,7 +1420,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1477,8 +1434,8 @@
       <c r="E43" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>18</v>
+      <c r="F43" s="2">
+        <v>23</v>
       </c>
       <c r="G43" s="1">
         <v>32268</v>
@@ -1486,7 +1443,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1500,8 +1457,8 @@
       <c r="E44" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>42</v>
+      <c r="F44" s="2">
+        <v>23</v>
       </c>
       <c r="G44" s="1">
         <v>30529</v>
@@ -1509,7 +1466,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1523,8 +1480,8 @@
       <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>20</v>
+      <c r="F45" s="2">
+        <v>23</v>
       </c>
       <c r="G45" s="1">
         <v>34113</v>
@@ -1532,10 +1489,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C46">
         <v>62</v>
@@ -1546,8 +1503,8 @@
       <c r="E46" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>22</v>
+      <c r="F46" s="2">
+        <v>23</v>
       </c>
       <c r="G46" s="1">
         <v>34874</v>
@@ -1555,10 +1512,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C47">
         <v>21</v>
@@ -1569,7 +1526,7 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="2">
         <v>23</v>
       </c>
       <c r="G47" s="1">
@@ -1578,10 +1535,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C48">
         <v>98</v>
@@ -1592,8 +1549,8 @@
       <c r="E48" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>24</v>
+      <c r="F48" s="2">
+        <v>23</v>
       </c>
       <c r="G48" s="1">
         <v>30529</v>
@@ -1601,10 +1558,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C49">
         <v>12</v>
@@ -1615,8 +1572,8 @@
       <c r="E49" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>25</v>
+      <c r="F49" s="2">
+        <v>23</v>
       </c>
       <c r="G49" s="1">
         <v>34113</v>
@@ -1627,7 +1584,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C50">
         <v>22</v>
@@ -1638,8 +1595,8 @@
       <c r="E50" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>17</v>
+      <c r="F50" s="2">
+        <v>23</v>
       </c>
       <c r="G50" s="1">
         <v>34874</v>
@@ -1650,7 +1607,7 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C51">
         <v>30</v>
@@ -1661,8 +1618,8 @@
       <c r="E51" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>18</v>
+      <c r="F51" s="2">
+        <v>23</v>
       </c>
       <c r="G51" s="1">
         <v>32268</v>
@@ -1684,8 +1641,8 @@
       <c r="E52" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>43</v>
+      <c r="F52" s="2">
+        <v>23</v>
       </c>
       <c r="G52" s="1">
         <v>30529</v>
@@ -1707,8 +1664,8 @@
       <c r="E53" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>20</v>
+      <c r="F53" s="2">
+        <v>23</v>
       </c>
       <c r="G53" s="1">
         <v>34113</v>
@@ -1719,7 +1676,7 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C54">
         <v>62</v>
@@ -1730,8 +1687,8 @@
       <c r="E54" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>22</v>
+      <c r="F54" s="2">
+        <v>23</v>
       </c>
       <c r="G54" s="1">
         <v>34874</v>
@@ -1742,7 +1699,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C55">
         <v>21</v>
@@ -1753,7 +1710,7 @@
       <c r="E55" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="2">
         <v>23</v>
       </c>
       <c r="G55" s="1">
@@ -1765,7 +1722,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C56">
         <v>98</v>
@@ -1776,8 +1733,8 @@
       <c r="E56" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>24</v>
+      <c r="F56" s="2">
+        <v>23</v>
       </c>
       <c r="G56" s="1">
         <v>30529</v>
@@ -1788,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>12</v>
@@ -1799,8 +1756,8 @@
       <c r="E57" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>25</v>
+      <c r="F57" s="2">
+        <v>23</v>
       </c>
       <c r="G57" s="1">
         <v>34113</v>
@@ -1808,7 +1765,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1822,8 +1779,8 @@
       <c r="E58" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>38</v>
+      <c r="F58" s="2">
+        <v>23</v>
       </c>
       <c r="G58" s="1">
         <v>34874</v>
@@ -1831,7 +1788,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -1845,8 +1802,8 @@
       <c r="E59" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>18</v>
+      <c r="F59" s="2">
+        <v>23</v>
       </c>
       <c r="G59" s="1">
         <v>32268</v>
@@ -1854,7 +1811,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -1869,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="F60" s="2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G60" s="1">
         <v>30529</v>
@@ -1877,10 +1834,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
         <v>29</v>
-      </c>
-      <c r="B61" t="s">
-        <v>37</v>
       </c>
       <c r="C61">
         <v>24</v>
@@ -1891,8 +1848,8 @@
       <c r="E61" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>20</v>
+      <c r="F61" s="2">
+        <v>23</v>
       </c>
       <c r="G61" s="1">
         <v>34113</v>
@@ -1900,10 +1857,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C62">
         <v>62</v>
@@ -1914,8 +1871,8 @@
       <c r="E62" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>22</v>
+      <c r="F62" s="2">
+        <v>23</v>
       </c>
       <c r="G62" s="1">
         <v>34874</v>
@@ -1923,10 +1880,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C63">
         <v>21</v>
@@ -1937,7 +1894,7 @@
       <c r="E63" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="2">
         <v>23</v>
       </c>
       <c r="G63" s="1">
@@ -1946,10 +1903,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C64">
         <v>98</v>
@@ -1960,8 +1917,8 @@
       <c r="E64" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>24</v>
+      <c r="F64" s="2">
+        <v>23</v>
       </c>
       <c r="G64" s="1">
         <v>30529</v>
@@ -1969,10 +1926,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C65">
         <v>12</v>
@@ -1983,8 +1940,8 @@
       <c r="E65" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>25</v>
+      <c r="F65" s="2">
+        <v>23</v>
       </c>
       <c r="G65" s="1">
         <v>34113</v>
